--- a/src/test/resources/DEV_TestData.xlsx
+++ b/src/test/resources/DEV_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABB4000-33F9-46AD-BCC2-912583ECCCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA6C7DF-4910-4546-926E-18939ABD988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -515,9 +515,6 @@
     <t>AD2</t>
   </si>
   <si>
-    <t>31-12-2023</t>
-  </si>
-  <si>
     <t>Axis Bank</t>
   </si>
   <si>
@@ -525,6 +522,9 @@
   </si>
   <si>
     <t>ExchangeLoyalty</t>
+  </si>
+  <si>
+    <t>30-01-2024</t>
   </si>
 </sst>
 </file>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
   <dimension ref="A1:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1"/>
+    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1140,7 +1140,7 @@
         <v>158</v>
       </c>
       <c r="BC1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:55">
@@ -1187,7 +1187,7 @@
         <v>123</v>
       </c>
       <c r="Q2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R2" t="s">
         <v>33</v>
@@ -1214,7 +1214,7 @@
         <v>37</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AJ2" t="s">
         <v>58</v>
@@ -1235,7 +1235,7 @@
         <v>140</v>
       </c>
       <c r="AZ2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA2">
         <v>239</v>
@@ -1297,7 +1297,7 @@
         <v>234</v>
       </c>
       <c r="Q3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>47</v>
@@ -1331,7 +1331,7 @@
         <v>61</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -1362,7 +1362,7 @@
         <v>140</v>
       </c>
       <c r="AZ3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA3">
         <v>240</v>
@@ -1424,7 +1424,7 @@
         <v>234</v>
       </c>
       <c r="Q4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>47</v>
@@ -1456,7 +1456,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>62</v>
@@ -1485,7 +1485,7 @@
         <v>140</v>
       </c>
       <c r="AZ4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA4">
         <v>241</v>
@@ -1544,7 +1544,7 @@
         <v>123</v>
       </c>
       <c r="Q5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R5" t="s">
         <v>33</v>
@@ -1578,7 +1578,7 @@
         <v>61</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -1639,7 +1639,7 @@
         <v>140</v>
       </c>
       <c r="AZ5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA5">
         <v>242</v>
@@ -1699,7 +1699,7 @@
         <v>123</v>
       </c>
       <c r="Q6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>33</v>
@@ -1733,7 +1733,7 @@
         <v>141</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
@@ -1769,7 +1769,7 @@
         <v>140</v>
       </c>
       <c r="AZ6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA6">
         <v>243</v>
@@ -1792,10 +1792,10 @@
         <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AP7" t="s">
         <v>88</v>
@@ -1813,7 +1813,7 @@
         <v>140</v>
       </c>
       <c r="AZ7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA7">
         <v>244</v>
@@ -1873,7 +1873,7 @@
         <v>123</v>
       </c>
       <c r="Q8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R8" s="4" t="s">
         <v>33</v>
@@ -1907,7 +1907,7 @@
         <v>141</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
@@ -1950,7 +1950,7 @@
         <v>140</v>
       </c>
       <c r="AZ8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA8">
         <v>245</v>
@@ -2010,7 +2010,7 @@
         <v>123</v>
       </c>
       <c r="Q9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R9" t="s">
         <v>47</v>
@@ -2044,7 +2044,7 @@
         <v>61</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
@@ -2105,7 +2105,7 @@
         <v>140</v>
       </c>
       <c r="AZ9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA9">
         <v>246</v>
@@ -2165,7 +2165,7 @@
         <v>123</v>
       </c>
       <c r="Q10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>93</v>
@@ -2199,7 +2199,7 @@
         <v>61</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -2260,7 +2260,7 @@
         <v>140</v>
       </c>
       <c r="AZ10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA10">
         <v>247</v>
@@ -2320,7 +2320,7 @@
         <v>123</v>
       </c>
       <c r="Q11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>93</v>
@@ -2354,7 +2354,7 @@
         <v>61</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -2415,7 +2415,7 @@
         <v>140</v>
       </c>
       <c r="AZ11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA11">
         <v>248</v>
@@ -2475,7 +2475,7 @@
         <v>123</v>
       </c>
       <c r="Q12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>93</v>
@@ -2509,7 +2509,7 @@
         <v>61</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -2570,7 +2570,7 @@
         <v>140</v>
       </c>
       <c r="AZ12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA12">
         <v>249</v>
@@ -2630,7 +2630,7 @@
         <v>123</v>
       </c>
       <c r="Q13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>93</v>
@@ -2664,7 +2664,7 @@
         <v>61</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -2725,7 +2725,7 @@
         <v>140</v>
       </c>
       <c r="AZ13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA13">
         <v>250</v>
@@ -2785,7 +2785,7 @@
         <v>123</v>
       </c>
       <c r="Q14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>93</v>
@@ -2819,7 +2819,7 @@
         <v>61</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -2880,7 +2880,7 @@
         <v>140</v>
       </c>
       <c r="AZ14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA14">
         <v>251</v>
@@ -2940,7 +2940,7 @@
         <v>123</v>
       </c>
       <c r="Q15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R15" t="s">
         <v>47</v>
@@ -2974,7 +2974,7 @@
         <v>61</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
@@ -3035,7 +3035,7 @@
         <v>140</v>
       </c>
       <c r="AZ15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA15">
         <v>252</v>
@@ -3095,7 +3095,7 @@
         <v>123</v>
       </c>
       <c r="Q16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R16" t="s">
         <v>47</v>
@@ -3129,7 +3129,7 @@
         <v>61</v>
       </c>
       <c r="AC16" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
@@ -3190,7 +3190,7 @@
         <v>140</v>
       </c>
       <c r="AZ16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA16">
         <v>253</v>
@@ -3250,7 +3250,7 @@
         <v>123</v>
       </c>
       <c r="Q17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>93</v>
@@ -3284,7 +3284,7 @@
         <v>61</v>
       </c>
       <c r="AC17" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -3345,7 +3345,7 @@
         <v>140</v>
       </c>
       <c r="AZ17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA17">
         <v>254</v>
@@ -3405,7 +3405,7 @@
         <v>123</v>
       </c>
       <c r="Q18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>93</v>
@@ -3439,7 +3439,7 @@
         <v>61</v>
       </c>
       <c r="AC18" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -3500,7 +3500,7 @@
         <v>140</v>
       </c>
       <c r="AZ18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA18">
         <v>255</v>
@@ -3560,7 +3560,7 @@
         <v>123</v>
       </c>
       <c r="Q19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>93</v>
@@ -3594,7 +3594,7 @@
         <v>61</v>
       </c>
       <c r="AC19" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -3655,7 +3655,7 @@
         <v>140</v>
       </c>
       <c r="AZ19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA19">
         <v>256</v>
@@ -3715,7 +3715,7 @@
         <v>123</v>
       </c>
       <c r="Q20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>93</v>
@@ -3749,7 +3749,7 @@
         <v>61</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -3810,7 +3810,7 @@
         <v>140</v>
       </c>
       <c r="AZ20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA20">
         <v>257</v>
@@ -3870,7 +3870,7 @@
         <v>123</v>
       </c>
       <c r="Q21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>93</v>
@@ -3904,7 +3904,7 @@
         <v>61</v>
       </c>
       <c r="AC21" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -3965,7 +3965,7 @@
         <v>140</v>
       </c>
       <c r="AZ21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA21">
         <v>258</v>
@@ -4025,7 +4025,7 @@
         <v>123</v>
       </c>
       <c r="Q22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>93</v>
@@ -4059,7 +4059,7 @@
         <v>61</v>
       </c>
       <c r="AC22" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -4120,7 +4120,7 @@
         <v>140</v>
       </c>
       <c r="AZ22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA22">
         <v>259</v>
@@ -4180,7 +4180,7 @@
         <v>123</v>
       </c>
       <c r="Q23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R23" t="s">
         <v>47</v>
@@ -4214,7 +4214,7 @@
         <v>61</v>
       </c>
       <c r="AC23" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -4275,7 +4275,7 @@
         <v>140</v>
       </c>
       <c r="AZ23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA23">
         <v>260</v>
@@ -4335,7 +4335,7 @@
         <v>123</v>
       </c>
       <c r="Q24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R24" t="s">
         <v>47</v>
@@ -4369,7 +4369,7 @@
         <v>61</v>
       </c>
       <c r="AC24" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -4430,7 +4430,7 @@
         <v>140</v>
       </c>
       <c r="AZ24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA24">
         <v>261</v>
@@ -4490,7 +4490,7 @@
         <v>123</v>
       </c>
       <c r="Q25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R25" t="s">
         <v>47</v>
@@ -4524,7 +4524,7 @@
         <v>61</v>
       </c>
       <c r="AC25" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -4585,7 +4585,7 @@
         <v>140</v>
       </c>
       <c r="AZ25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA25">
         <v>262</v>
@@ -4645,7 +4645,7 @@
         <v>123</v>
       </c>
       <c r="Q26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>93</v>
@@ -4679,7 +4679,7 @@
         <v>61</v>
       </c>
       <c r="AC26" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -4740,7 +4740,7 @@
         <v>140</v>
       </c>
       <c r="AZ26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA26">
         <v>263</v>
@@ -4800,7 +4800,7 @@
         <v>123</v>
       </c>
       <c r="Q27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>93</v>
@@ -4834,7 +4834,7 @@
         <v>61</v>
       </c>
       <c r="AC27" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -4895,7 +4895,7 @@
         <v>140</v>
       </c>
       <c r="AZ27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA27">
         <v>264</v>
@@ -4955,7 +4955,7 @@
         <v>123</v>
       </c>
       <c r="Q28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>93</v>
@@ -4989,7 +4989,7 @@
         <v>61</v>
       </c>
       <c r="AC28" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -5050,7 +5050,7 @@
         <v>140</v>
       </c>
       <c r="AZ28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA28">
         <v>265</v>
@@ -5110,7 +5110,7 @@
         <v>123</v>
       </c>
       <c r="Q29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>93</v>
@@ -5144,7 +5144,7 @@
         <v>61</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -5205,7 +5205,7 @@
         <v>140</v>
       </c>
       <c r="AZ29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA29">
         <v>266</v>
@@ -5265,7 +5265,7 @@
         <v>123</v>
       </c>
       <c r="Q30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>93</v>
@@ -5299,7 +5299,7 @@
         <v>61</v>
       </c>
       <c r="AC30" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -5360,7 +5360,7 @@
         <v>140</v>
       </c>
       <c r="AZ30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA30">
         <v>267</v>
@@ -5420,7 +5420,7 @@
         <v>123</v>
       </c>
       <c r="Q31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>93</v>
@@ -5454,7 +5454,7 @@
         <v>61</v>
       </c>
       <c r="AC31" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -5515,7 +5515,7 @@
         <v>140</v>
       </c>
       <c r="AZ31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA31">
         <v>268</v>
@@ -5575,7 +5575,7 @@
         <v>123</v>
       </c>
       <c r="Q32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>93</v>
@@ -5609,7 +5609,7 @@
         <v>61</v>
       </c>
       <c r="AC32" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -5670,7 +5670,7 @@
         <v>140</v>
       </c>
       <c r="AZ32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA32">
         <v>269</v>
@@ -5730,7 +5730,7 @@
         <v>123</v>
       </c>
       <c r="Q33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R33" t="s">
         <v>47</v>
@@ -5764,7 +5764,7 @@
         <v>61</v>
       </c>
       <c r="AC33" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -5825,7 +5825,7 @@
         <v>140</v>
       </c>
       <c r="AZ33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA33">
         <v>270</v>
@@ -5885,7 +5885,7 @@
         <v>123</v>
       </c>
       <c r="Q34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R34" s="4" t="s">
         <v>93</v>
@@ -5919,7 +5919,7 @@
         <v>61</v>
       </c>
       <c r="AC34" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -5980,7 +5980,7 @@
         <v>140</v>
       </c>
       <c r="AZ34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA34">
         <v>271</v>
@@ -6040,7 +6040,7 @@
         <v>123</v>
       </c>
       <c r="Q35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>93</v>
@@ -6074,7 +6074,7 @@
         <v>61</v>
       </c>
       <c r="AC35" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -6135,7 +6135,7 @@
         <v>140</v>
       </c>
       <c r="AZ35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA35">
         <v>272</v>
@@ -6195,7 +6195,7 @@
         <v>123</v>
       </c>
       <c r="Q36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>93</v>
@@ -6229,7 +6229,7 @@
         <v>61</v>
       </c>
       <c r="AC36" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -6290,7 +6290,7 @@
         <v>140</v>
       </c>
       <c r="AZ36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA36">
         <v>273</v>
@@ -6350,7 +6350,7 @@
         <v>123</v>
       </c>
       <c r="Q37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R37" t="s">
         <v>47</v>
@@ -6384,7 +6384,7 @@
         <v>61</v>
       </c>
       <c r="AC37" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -6445,7 +6445,7 @@
         <v>140</v>
       </c>
       <c r="AZ37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA37">
         <v>274</v>
@@ -6505,7 +6505,7 @@
         <v>123</v>
       </c>
       <c r="Q38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R38" t="s">
         <v>47</v>
@@ -6539,7 +6539,7 @@
         <v>61</v>
       </c>
       <c r="AC38" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -6600,7 +6600,7 @@
         <v>140</v>
       </c>
       <c r="AZ38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA38">
         <v>275</v>
@@ -6623,13 +6623,13 @@
         <v>130</v>
       </c>
       <c r="Q39" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC39" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ39" t="s">
         <v>160</v>
-      </c>
-      <c r="AC39" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ39" t="s">
-        <v>161</v>
       </c>
       <c r="BA39">
         <v>276</v>
@@ -6652,13 +6652,13 @@
         <v>128</v>
       </c>
       <c r="Q40" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ40" t="s">
         <v>160</v>
-      </c>
-      <c r="AC40" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ40" t="s">
-        <v>161</v>
       </c>
       <c r="BA40">
         <v>277</v>
@@ -6681,13 +6681,13 @@
         <v>129</v>
       </c>
       <c r="Q41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ41" t="s">
         <v>160</v>
-      </c>
-      <c r="AC41" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ41" t="s">
-        <v>161</v>
       </c>
       <c r="BA41">
         <v>278</v>
@@ -6710,13 +6710,13 @@
         <v>134</v>
       </c>
       <c r="Q42" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ42" t="s">
         <v>160</v>
-      </c>
-      <c r="AC42" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ42" t="s">
-        <v>161</v>
       </c>
       <c r="BA42">
         <v>279</v>
@@ -6739,13 +6739,13 @@
         <v>135</v>
       </c>
       <c r="Q43" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ43" t="s">
         <v>160</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ43" t="s">
-        <v>161</v>
       </c>
       <c r="BA43">
         <v>280</v>
@@ -6805,7 +6805,7 @@
         <v>123</v>
       </c>
       <c r="Q44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R44" t="s">
         <v>47</v>
@@ -6839,7 +6839,7 @@
         <v>61</v>
       </c>
       <c r="AC44" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -6900,7 +6900,7 @@
         <v>140</v>
       </c>
       <c r="AZ44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA44">
         <v>281</v>
@@ -6960,7 +6960,7 @@
         <v>123</v>
       </c>
       <c r="Q45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>93</v>
@@ -6994,7 +6994,7 @@
         <v>61</v>
       </c>
       <c r="AC45" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -7055,7 +7055,7 @@
         <v>140</v>
       </c>
       <c r="AZ45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA45">
         <v>282</v>
@@ -7115,7 +7115,7 @@
         <v>123</v>
       </c>
       <c r="Q46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>93</v>
@@ -7149,7 +7149,7 @@
         <v>61</v>
       </c>
       <c r="AC46" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -7210,7 +7210,7 @@
         <v>140</v>
       </c>
       <c r="AZ46" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA46">
         <v>283</v>
@@ -7270,7 +7270,7 @@
         <v>123</v>
       </c>
       <c r="Q47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>93</v>
@@ -7304,7 +7304,7 @@
         <v>61</v>
       </c>
       <c r="AC47" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -7365,7 +7365,7 @@
         <v>140</v>
       </c>
       <c r="AZ47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA47">
         <v>284</v>
@@ -7425,7 +7425,7 @@
         <v>123</v>
       </c>
       <c r="Q48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R48" t="s">
         <v>47</v>
@@ -7459,7 +7459,7 @@
         <v>61</v>
       </c>
       <c r="AC48" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -7520,7 +7520,7 @@
         <v>140</v>
       </c>
       <c r="AZ48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA48">
         <v>285</v>
@@ -7580,7 +7580,7 @@
         <v>123</v>
       </c>
       <c r="Q49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R49" t="s">
         <v>47</v>
@@ -7614,7 +7614,7 @@
         <v>61</v>
       </c>
       <c r="AC49" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -7675,7 +7675,7 @@
         <v>140</v>
       </c>
       <c r="AZ49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA49">
         <v>286</v>
@@ -7735,7 +7735,7 @@
         <v>123</v>
       </c>
       <c r="Q50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R50" s="4" t="s">
         <v>93</v>
@@ -7769,7 +7769,7 @@
         <v>61</v>
       </c>
       <c r="AC50" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -7830,7 +7830,7 @@
         <v>140</v>
       </c>
       <c r="AZ50" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA50">
         <v>287</v>
@@ -7890,7 +7890,7 @@
         <v>123</v>
       </c>
       <c r="Q51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>93</v>
@@ -7924,7 +7924,7 @@
         <v>61</v>
       </c>
       <c r="AC51" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -7985,7 +7985,7 @@
         <v>140</v>
       </c>
       <c r="AZ51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA51">
         <v>288</v>
@@ -8045,7 +8045,7 @@
         <v>123</v>
       </c>
       <c r="Q52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R52" s="4" t="s">
         <v>93</v>
@@ -8079,7 +8079,7 @@
         <v>61</v>
       </c>
       <c r="AC52" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -8140,7 +8140,7 @@
         <v>140</v>
       </c>
       <c r="AZ52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA52">
         <v>289</v>
@@ -8200,7 +8200,7 @@
         <v>123</v>
       </c>
       <c r="Q53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>93</v>
@@ -8234,7 +8234,7 @@
         <v>61</v>
       </c>
       <c r="AC53" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -8295,7 +8295,7 @@
         <v>140</v>
       </c>
       <c r="AZ53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA53">
         <v>290</v>
@@ -8355,7 +8355,7 @@
         <v>123</v>
       </c>
       <c r="Q54" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R54" t="s">
         <v>47</v>
@@ -8389,7 +8389,7 @@
         <v>61</v>
       </c>
       <c r="AC54" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -8450,7 +8450,7 @@
         <v>140</v>
       </c>
       <c r="AZ54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA54">
         <v>291</v>
@@ -8510,7 +8510,7 @@
         <v>123</v>
       </c>
       <c r="Q55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R55" s="4" t="s">
         <v>93</v>
@@ -8544,7 +8544,7 @@
         <v>61</v>
       </c>
       <c r="AC55" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -8605,7 +8605,7 @@
         <v>140</v>
       </c>
       <c r="AZ55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA55">
         <v>292</v>

--- a/src/test/resources/DEV_TestData.xlsx
+++ b/src/test/resources/DEV_TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tanugupta02\git\dms_Invoice_UIAutomation\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sprakash01\ProjectFiles\dms_Invoice_UIAutomation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA6C7DF-4910-4546-926E-18939ABD988D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94166A05-E64A-4204-B662-9060D513AC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CDBA7115-E026-4056-AC8F-36C7037DED46}"/>
   </bookViews>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41155F0-825A-4766-BD15-0E5CF84D580C}">
   <dimension ref="A1:BC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T2" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="L35" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="T5">
-        <v>121111</v>
+        <v>23000.5</v>
       </c>
       <c r="U5" t="s">
         <v>13</v>
@@ -2019,7 +2019,7 @@
         <v>32</v>
       </c>
       <c r="T9">
-        <v>121111</v>
+        <v>12000</v>
       </c>
       <c r="U9" t="s">
         <v>13</v>
@@ -2484,7 +2484,7 @@
         <v>32</v>
       </c>
       <c r="T12">
-        <v>121111</v>
+        <v>12000</v>
       </c>
       <c r="U12" t="s">
         <v>13</v>
@@ -2949,7 +2949,7 @@
         <v>32</v>
       </c>
       <c r="T15">
-        <v>12222</v>
+        <v>23000.5</v>
       </c>
       <c r="U15" t="s">
         <v>13</v>
@@ -3569,7 +3569,7 @@
         <v>32</v>
       </c>
       <c r="T19">
-        <v>121111</v>
+        <v>12000</v>
       </c>
       <c r="U19" t="s">
         <v>13</v>
@@ -4189,7 +4189,7 @@
         <v>32</v>
       </c>
       <c r="T23">
-        <v>12222</v>
+        <v>23000.5</v>
       </c>
       <c r="U23" t="s">
         <v>13</v>
@@ -4964,7 +4964,7 @@
         <v>32</v>
       </c>
       <c r="T28">
-        <v>121111</v>
+        <v>12000</v>
       </c>
       <c r="U28" t="s">
         <v>13</v>
@@ -5429,7 +5429,7 @@
         <v>32</v>
       </c>
       <c r="T31">
-        <v>121111</v>
+        <v>23000.5</v>
       </c>
       <c r="U31" t="s">
         <v>13</v>
@@ -5894,7 +5894,7 @@
         <v>32</v>
       </c>
       <c r="T34">
-        <v>121111</v>
+        <v>12000</v>
       </c>
       <c r="U34" t="s">
         <v>13</v>
@@ -6514,7 +6514,7 @@
         <v>32</v>
       </c>
       <c r="T38">
-        <v>12222</v>
+        <v>23000.5</v>
       </c>
       <c r="U38" t="s">
         <v>13</v>
@@ -6969,7 +6969,7 @@
         <v>32</v>
       </c>
       <c r="T45">
-        <v>121111</v>
+        <v>23000.5</v>
       </c>
       <c r="U45" t="s">
         <v>13</v>
@@ -7279,7 +7279,7 @@
         <v>32</v>
       </c>
       <c r="T47">
-        <v>121111</v>
+        <v>12000</v>
       </c>
       <c r="U47" t="s">
         <v>13</v>
@@ -7744,7 +7744,7 @@
         <v>32</v>
       </c>
       <c r="T50">
-        <v>121111</v>
+        <v>23000.5</v>
       </c>
       <c r="U50" t="s">
         <v>13</v>
@@ -8209,7 +8209,7 @@
         <v>32</v>
       </c>
       <c r="T53">
-        <v>121111</v>
+        <v>23000.5</v>
       </c>
       <c r="U53" t="s">
         <v>13</v>
